--- a/SOEN287A1Grading.xlsx
+++ b/SOEN287A1Grading.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamo\Documents\GitHub\SOEN-287\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GhaithAdnan\Documents\GitHub\SOEN-287\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47B397F-B113-4CF8-B9B5-63963C50143C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E36534-A4AD-4364-ACD6-AB4AE39B2FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="2450" windowWidth="22090" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>Assignment #1</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>40174716, Adamo Orsini</t>
+  </si>
+  <si>
+    <t>40114180, Ghaith Chrit</t>
   </si>
 </sst>
 </file>
@@ -917,20 +920,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>46</v>
       </c>
@@ -938,7 +941,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
@@ -946,7 +949,7 @@
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>56</v>
       </c>
@@ -954,13 +957,13 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
@@ -974,7 +977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
@@ -982,9 +985,11 @@
       <c r="C6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" thickBot="1">
+      <c r="D6" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -994,7 +999,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1009,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1019,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="24"/>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="39" t="s">
         <v>47</v>
       </c>
@@ -1024,7 +1029,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="24"/>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1039,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1044,7 +1049,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1054,7 +1059,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="24"/>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="40" t="s">
         <v>54</v>
       </c>
@@ -1064,7 +1069,7 @@
       <c r="C14" s="20"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
@@ -1072,9 +1077,11 @@
       <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="29"/>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1" thickBot="1">
+      <c r="D15" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1083,7 +1090,7 @@
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1092,7 +1099,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +1108,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
@@ -1110,7 +1117,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1126,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1128,7 +1135,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="40" t="s">
         <v>52</v>
       </c>
@@ -1137,7 +1144,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
@@ -1150,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1159,7 +1166,7 @@
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
@@ -1168,7 +1175,7 @@
       </c>
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1184,7 @@
       </c>
       <c r="D26" s="24"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1193,7 @@
       </c>
       <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1202,7 @@
       </c>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1211,7 @@
       </c>
       <c r="D29" s="24"/>
     </row>
-    <row r="30" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A30" s="40" t="s">
         <v>53</v>
       </c>
@@ -1213,7 +1220,7 @@
       </c>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1230,7 @@
       </c>
       <c r="D31" s="29"/>
     </row>
-    <row r="32" spans="1:9" ht="20" customHeight="1" thickBot="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A32" s="9" t="s">
         <v>12</v>
       </c>
@@ -1232,7 +1239,7 @@
       </c>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="14" t="s">
         <v>34</v>
       </c>
@@ -1241,7 +1248,7 @@
       </c>
       <c r="D33" s="24"/>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>26</v>
       </c>
@@ -1250,7 +1257,7 @@
       </c>
       <c r="D34" s="24"/>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1259,7 +1266,7 @@
       </c>
       <c r="D35" s="24"/>
     </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
@@ -1268,7 +1275,7 @@
       </c>
       <c r="D36" s="24"/>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A37" s="13" t="s">
         <v>13</v>
       </c>
@@ -1280,7 +1287,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A38" s="14" t="s">
         <v>36</v>
       </c>
@@ -1289,7 +1296,7 @@
       </c>
       <c r="D38" s="23"/>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1305,7 @@
       </c>
       <c r="D39" s="24"/>
     </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1314,7 @@
       </c>
       <c r="D40" s="24"/>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -1316,7 +1323,7 @@
       </c>
       <c r="D41" s="24"/>
     </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>28</v>
       </c>
@@ -1325,7 +1332,7 @@
       </c>
       <c r="D42" s="24"/>
     </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A43" s="40" t="s">
         <v>51</v>
       </c>
@@ -1334,7 +1341,7 @@
       </c>
       <c r="D43" s="24"/>
     </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A44" s="13" t="s">
         <v>14</v>
       </c>
@@ -1346,7 +1353,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="9" t="s">
         <v>16</v>
       </c>
@@ -1355,7 +1362,7 @@
       </c>
       <c r="D45" s="23"/>
     </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A46" s="14" t="s">
         <v>37</v>
       </c>
@@ -1364,7 +1371,7 @@
       </c>
       <c r="D46" s="24"/>
     </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="9" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1380,7 @@
       </c>
       <c r="D47" s="24"/>
     </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A48" s="9" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1389,7 @@
       </c>
       <c r="D48" s="24"/>
     </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A49" s="10" t="s">
         <v>28</v>
       </c>
@@ -1391,7 +1398,7 @@
       </c>
       <c r="D49" s="24"/>
     </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A50" s="40" t="s">
         <v>50</v>
       </c>
@@ -1400,7 +1407,7 @@
       </c>
       <c r="D50" s="24"/>
     </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A51" s="13" t="s">
         <v>15</v>
       </c>
@@ -1410,7 +1417,7 @@
       </c>
       <c r="D51" s="29"/>
     </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
@@ -1419,7 +1426,7 @@
       </c>
       <c r="D52" s="23"/>
     </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A53" s="14" t="s">
         <v>38</v>
       </c>
@@ -1428,7 +1435,7 @@
       </c>
       <c r="D53" s="24"/>
     </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A54" s="9" t="s">
         <v>26</v>
       </c>
@@ -1437,7 +1444,7 @@
       </c>
       <c r="D54" s="24"/>
     </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A55" s="9" t="s">
         <v>27</v>
       </c>
@@ -1446,7 +1453,7 @@
       </c>
       <c r="D55" s="24"/>
     </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1462,7 @@
       </c>
       <c r="D56" s="24"/>
     </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A57" s="40" t="s">
         <v>48</v>
       </c>
@@ -1464,7 +1471,7 @@
       </c>
       <c r="D57" s="24"/>
     </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A58" s="13" t="s">
         <v>18</v>
       </c>
@@ -1474,7 +1481,7 @@
       </c>
       <c r="D58" s="29"/>
     </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A59" s="14" t="s">
         <v>39</v>
       </c>
@@ -1483,7 +1490,7 @@
       </c>
       <c r="D59" s="23"/>
     </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A60" s="9" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1499,7 @@
       </c>
       <c r="D60" s="24"/>
     </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A61" s="9" t="s">
         <v>26</v>
       </c>
@@ -1501,7 +1508,7 @@
       </c>
       <c r="D61" s="24"/>
     </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A62" s="9" t="s">
         <v>27</v>
       </c>
@@ -1510,7 +1517,7 @@
       </c>
       <c r="D62" s="24"/>
     </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A63" s="10" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +1526,7 @@
       </c>
       <c r="D63" s="24"/>
     </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A64" s="40" t="s">
         <v>48</v>
       </c>
@@ -1528,7 +1535,7 @@
       </c>
       <c r="D64" s="24"/>
     </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A65" s="13" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1545,7 @@
       </c>
       <c r="D65" s="29"/>
     </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A66" s="9" t="s">
         <v>21</v>
       </c>
@@ -1547,7 +1554,7 @@
       </c>
       <c r="D66" s="23"/>
     </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A67" s="14" t="s">
         <v>40</v>
       </c>
@@ -1556,7 +1563,7 @@
       </c>
       <c r="D67" s="24"/>
     </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A68" s="9" t="s">
         <v>26</v>
       </c>
@@ -1565,7 +1572,7 @@
       </c>
       <c r="D68" s="24"/>
     </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A69" s="9" t="s">
         <v>27</v>
       </c>
@@ -1574,7 +1581,7 @@
       </c>
       <c r="D69" s="24"/>
     </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A70" s="10" t="s">
         <v>28</v>
       </c>
@@ -1583,7 +1590,7 @@
       </c>
       <c r="D70" s="24"/>
     </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A71" s="40" t="s">
         <v>48</v>
       </c>
@@ -1592,7 +1599,7 @@
       </c>
       <c r="D71" s="24"/>
     </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A72" s="13" t="s">
         <v>22</v>
       </c>
@@ -1602,7 +1609,7 @@
       </c>
       <c r="D72" s="29"/>
     </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A73" s="14" t="s">
         <v>39</v>
       </c>
@@ -1611,7 +1618,7 @@
       </c>
       <c r="D73" s="23"/>
     </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A74" s="9" t="s">
         <v>19</v>
       </c>
@@ -1620,7 +1627,7 @@
       </c>
       <c r="D74" s="24"/>
     </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A75" s="9" t="s">
         <v>26</v>
       </c>
@@ -1629,7 +1636,7 @@
       </c>
       <c r="D75" s="24"/>
     </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A76" s="9" t="s">
         <v>27</v>
       </c>
@@ -1638,7 +1645,7 @@
       </c>
       <c r="D76" s="24"/>
     </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A77" s="10" t="s">
         <v>28</v>
       </c>
@@ -1647,7 +1654,7 @@
       </c>
       <c r="D77" s="24"/>
     </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A78" s="40" t="s">
         <v>49</v>
       </c>
@@ -1656,7 +1663,7 @@
       </c>
       <c r="D78" s="24"/>
     </row>
-    <row r="79" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A79" s="13" t="s">
         <v>23</v>
       </c>
@@ -1666,7 +1673,7 @@
       </c>
       <c r="D79" s="29"/>
     </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A80" s="9" t="s">
         <v>21</v>
       </c>
@@ -1675,7 +1682,7 @@
       </c>
       <c r="D80" s="23"/>
     </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A81" s="14" t="s">
         <v>41</v>
       </c>
@@ -1684,7 +1691,7 @@
       </c>
       <c r="D81" s="24"/>
     </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A82" s="9" t="s">
         <v>26</v>
       </c>
@@ -1693,7 +1700,7 @@
       </c>
       <c r="D82" s="24"/>
     </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="9" t="s">
         <v>27</v>
       </c>
@@ -1702,7 +1709,7 @@
       </c>
       <c r="D83" s="24"/>
     </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A84" s="10" t="s">
         <v>28</v>
       </c>
@@ -1711,7 +1718,7 @@
       </c>
       <c r="D84" s="24"/>
     </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A85" s="40" t="s">
         <v>48</v>
       </c>
@@ -1720,7 +1727,7 @@
       </c>
       <c r="D85" s="24"/>
     </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A86" s="13" t="s">
         <v>24</v>
       </c>
@@ -1730,7 +1737,7 @@
       </c>
       <c r="D86" s="30"/>
     </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A87" s="26" t="s">
         <v>39</v>
       </c>
@@ -1739,7 +1746,7 @@
       </c>
       <c r="D87" s="28"/>
     </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A88" s="9" t="s">
         <v>19</v>
       </c>
@@ -1748,7 +1755,7 @@
       </c>
       <c r="D88" s="24"/>
     </row>
-    <row r="89" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A89" s="9" t="s">
         <v>26</v>
       </c>
@@ -1757,7 +1764,7 @@
       </c>
       <c r="D89" s="24"/>
     </row>
-    <row r="90" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A90" s="9" t="s">
         <v>27</v>
       </c>
@@ -1766,7 +1773,7 @@
       </c>
       <c r="D90" s="24"/>
     </row>
-    <row r="91" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A91" s="10" t="s">
         <v>28</v>
       </c>
@@ -1775,7 +1782,7 @@
       </c>
       <c r="D91" s="24"/>
     </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A92" s="40" t="s">
         <v>48</v>
       </c>
@@ -1784,7 +1791,7 @@
       </c>
       <c r="D92" s="24"/>
     </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A93" s="13" t="s">
         <v>25</v>
       </c>
@@ -1808,7 +1815,7 @@
       <c r="C95" s="34"/>
       <c r="D95" s="35"/>
     </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1" thickBot="1">
+    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A96" s="36"/>
       <c r="B96" s="37"/>
       <c r="C96" s="38"/>

--- a/SOEN287A1Grading.xlsx
+++ b/SOEN287A1Grading.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GhaithAdnan\Documents\GitHub\SOEN-287\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhay\Documents\GitHub\SOEN-287\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E36534-A4AD-4364-ACD6-AB4AE39B2FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFBAD38-C20C-4900-97B1-579FF41AF9C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t>Assignment #1</t>
   </si>
@@ -208,6 +198,9 @@
   </si>
   <si>
     <t>40114180, Ghaith Chrit</t>
+  </si>
+  <si>
+    <t>40174642, Abhay Panchoo</t>
   </si>
 </sst>
 </file>
@@ -920,20 +913,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="20.149999999999999" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>46</v>
       </c>
@@ -941,7 +934,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
@@ -949,7 +942,7 @@
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:4" ht="20.149999999999999" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>56</v>
       </c>
@@ -957,13 +950,13 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
@@ -977,7 +970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
@@ -989,7 +982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -999,7 +992,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1002,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1012,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="24"/>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="10" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A10" s="39" t="s">
         <v>47</v>
       </c>
@@ -1029,7 +1022,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="24"/>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="11" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1032,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="12" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1049,7 +1042,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="13" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1059,7 +1052,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="24"/>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="14" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A14" s="40" t="s">
         <v>54</v>
       </c>
@@ -1069,7 +1062,7 @@
       <c r="C14" s="20"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="15" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
@@ -1081,7 +1074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="16" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1090,7 +1083,7 @@
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="17" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1099,7 +1092,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="18" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -1108,7 +1101,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="19" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1110,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
@@ -1126,7 +1119,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="21" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1128,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A22" s="40" t="s">
         <v>52</v>
       </c>
@@ -1144,7 +1137,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
@@ -1152,12 +1145,14 @@
       <c r="C23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="24" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1161,7 @@
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="25" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
@@ -1175,7 +1170,7 @@
       </c>
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="26" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1179,7 @@
       </c>
       <c r="D26" s="24"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -1193,7 +1188,7 @@
       </c>
       <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="28" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -1202,7 +1197,7 @@
       </c>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="29" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1206,7 @@
       </c>
       <c r="D29" s="24"/>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="30" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A30" s="40" t="s">
         <v>53</v>
       </c>
@@ -1220,7 +1215,7 @@
       </c>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="31" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
@@ -1228,9 +1223,11 @@
       <c r="C31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="D31" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A32" s="9" t="s">
         <v>12</v>
       </c>
@@ -1239,7 +1236,7 @@
       </c>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="33" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A33" s="14" t="s">
         <v>34</v>
       </c>
@@ -1248,7 +1245,7 @@
       </c>
       <c r="D33" s="24"/>
     </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="34" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>26</v>
       </c>
@@ -1257,7 +1254,7 @@
       </c>
       <c r="D34" s="24"/>
     </row>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="35" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1266,7 +1263,7 @@
       </c>
       <c r="D35" s="24"/>
     </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="36" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
@@ -1275,7 +1272,7 @@
       </c>
       <c r="D36" s="24"/>
     </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="37" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A37" s="13" t="s">
         <v>13</v>
       </c>
@@ -1287,7 +1284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="38" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A38" s="14" t="s">
         <v>36</v>
       </c>
@@ -1296,7 +1293,7 @@
       </c>
       <c r="D38" s="23"/>
     </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="39" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
@@ -1305,7 +1302,7 @@
       </c>
       <c r="D39" s="24"/>
     </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="40" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -1314,7 +1311,7 @@
       </c>
       <c r="D40" s="24"/>
     </row>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="41" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -1323,7 +1320,7 @@
       </c>
       <c r="D41" s="24"/>
     </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="42" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>28</v>
       </c>
@@ -1332,7 +1329,7 @@
       </c>
       <c r="D42" s="24"/>
     </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="43" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A43" s="40" t="s">
         <v>51</v>
       </c>
@@ -1341,7 +1338,7 @@
       </c>
       <c r="D43" s="24"/>
     </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="44" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A44" s="13" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="45" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A45" s="9" t="s">
         <v>16</v>
       </c>
@@ -1362,7 +1359,7 @@
       </c>
       <c r="D45" s="23"/>
     </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="46" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A46" s="14" t="s">
         <v>37</v>
       </c>
@@ -1371,7 +1368,7 @@
       </c>
       <c r="D46" s="24"/>
     </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="47" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A47" s="9" t="s">
         <v>26</v>
       </c>
@@ -1380,7 +1377,7 @@
       </c>
       <c r="D47" s="24"/>
     </row>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="48" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A48" s="9" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1386,7 @@
       </c>
       <c r="D48" s="24"/>
     </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="49" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A49" s="10" t="s">
         <v>28</v>
       </c>
@@ -1398,7 +1395,7 @@
       </c>
       <c r="D49" s="24"/>
     </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="50" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A50" s="40" t="s">
         <v>50</v>
       </c>
@@ -1407,7 +1404,7 @@
       </c>
       <c r="D50" s="24"/>
     </row>
-    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="51" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A51" s="13" t="s">
         <v>15</v>
       </c>
@@ -1417,7 +1414,7 @@
       </c>
       <c r="D51" s="29"/>
     </row>
-    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="52" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
@@ -1426,7 +1423,7 @@
       </c>
       <c r="D52" s="23"/>
     </row>
-    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="53" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A53" s="14" t="s">
         <v>38</v>
       </c>
@@ -1435,7 +1432,7 @@
       </c>
       <c r="D53" s="24"/>
     </row>
-    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="54" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A54" s="9" t="s">
         <v>26</v>
       </c>
@@ -1444,7 +1441,7 @@
       </c>
       <c r="D54" s="24"/>
     </row>
-    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="55" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A55" s="9" t="s">
         <v>27</v>
       </c>
@@ -1453,7 +1450,7 @@
       </c>
       <c r="D55" s="24"/>
     </row>
-    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="56" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>28</v>
       </c>
@@ -1462,7 +1459,7 @@
       </c>
       <c r="D56" s="24"/>
     </row>
-    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="57" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A57" s="40" t="s">
         <v>48</v>
       </c>
@@ -1471,7 +1468,7 @@
       </c>
       <c r="D57" s="24"/>
     </row>
-    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="58" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A58" s="13" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1478,7 @@
       </c>
       <c r="D58" s="29"/>
     </row>
-    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="59" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A59" s="14" t="s">
         <v>39</v>
       </c>
@@ -1490,7 +1487,7 @@
       </c>
       <c r="D59" s="23"/>
     </row>
-    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="60" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A60" s="9" t="s">
         <v>19</v>
       </c>
@@ -1499,7 +1496,7 @@
       </c>
       <c r="D60" s="24"/>
     </row>
-    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="61" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A61" s="9" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1505,7 @@
       </c>
       <c r="D61" s="24"/>
     </row>
-    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="62" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A62" s="9" t="s">
         <v>27</v>
       </c>
@@ -1517,7 +1514,7 @@
       </c>
       <c r="D62" s="24"/>
     </row>
-    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="63" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A63" s="10" t="s">
         <v>28</v>
       </c>
@@ -1526,7 +1523,7 @@
       </c>
       <c r="D63" s="24"/>
     </row>
-    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="64" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A64" s="40" t="s">
         <v>48</v>
       </c>
@@ -1535,7 +1532,7 @@
       </c>
       <c r="D64" s="24"/>
     </row>
-    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="65" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A65" s="13" t="s">
         <v>20</v>
       </c>
@@ -1545,7 +1542,7 @@
       </c>
       <c r="D65" s="29"/>
     </row>
-    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="66" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A66" s="9" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1551,7 @@
       </c>
       <c r="D66" s="23"/>
     </row>
-    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="67" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A67" s="14" t="s">
         <v>40</v>
       </c>
@@ -1563,7 +1560,7 @@
       </c>
       <c r="D67" s="24"/>
     </row>
-    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="68" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A68" s="9" t="s">
         <v>26</v>
       </c>
@@ -1572,7 +1569,7 @@
       </c>
       <c r="D68" s="24"/>
     </row>
-    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="69" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A69" s="9" t="s">
         <v>27</v>
       </c>
@@ -1581,7 +1578,7 @@
       </c>
       <c r="D69" s="24"/>
     </row>
-    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="70" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A70" s="10" t="s">
         <v>28</v>
       </c>
@@ -1590,7 +1587,7 @@
       </c>
       <c r="D70" s="24"/>
     </row>
-    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="71" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A71" s="40" t="s">
         <v>48</v>
       </c>
@@ -1599,7 +1596,7 @@
       </c>
       <c r="D71" s="24"/>
     </row>
-    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="72" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A72" s="13" t="s">
         <v>22</v>
       </c>
@@ -1609,7 +1606,7 @@
       </c>
       <c r="D72" s="29"/>
     </row>
-    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="73" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A73" s="14" t="s">
         <v>39</v>
       </c>
@@ -1618,7 +1615,7 @@
       </c>
       <c r="D73" s="23"/>
     </row>
-    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="74" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A74" s="9" t="s">
         <v>19</v>
       </c>
@@ -1627,7 +1624,7 @@
       </c>
       <c r="D74" s="24"/>
     </row>
-    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="75" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A75" s="9" t="s">
         <v>26</v>
       </c>
@@ -1636,7 +1633,7 @@
       </c>
       <c r="D75" s="24"/>
     </row>
-    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="76" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A76" s="9" t="s">
         <v>27</v>
       </c>
@@ -1645,7 +1642,7 @@
       </c>
       <c r="D76" s="24"/>
     </row>
-    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="77" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A77" s="10" t="s">
         <v>28</v>
       </c>
@@ -1654,7 +1651,7 @@
       </c>
       <c r="D77" s="24"/>
     </row>
-    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="78" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A78" s="40" t="s">
         <v>49</v>
       </c>
@@ -1663,7 +1660,7 @@
       </c>
       <c r="D78" s="24"/>
     </row>
-    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="79" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A79" s="13" t="s">
         <v>23</v>
       </c>
@@ -1673,7 +1670,7 @@
       </c>
       <c r="D79" s="29"/>
     </row>
-    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="80" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A80" s="9" t="s">
         <v>21</v>
       </c>
@@ -1682,7 +1679,7 @@
       </c>
       <c r="D80" s="23"/>
     </row>
-    <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="81" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A81" s="14" t="s">
         <v>41</v>
       </c>
@@ -1691,7 +1688,7 @@
       </c>
       <c r="D81" s="24"/>
     </row>
-    <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="82" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A82" s="9" t="s">
         <v>26</v>
       </c>
@@ -1700,7 +1697,7 @@
       </c>
       <c r="D82" s="24"/>
     </row>
-    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="83" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A83" s="9" t="s">
         <v>27</v>
       </c>
@@ -1709,7 +1706,7 @@
       </c>
       <c r="D83" s="24"/>
     </row>
-    <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="84" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A84" s="10" t="s">
         <v>28</v>
       </c>
@@ -1718,7 +1715,7 @@
       </c>
       <c r="D84" s="24"/>
     </row>
-    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="85" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A85" s="40" t="s">
         <v>48</v>
       </c>
@@ -1727,7 +1724,7 @@
       </c>
       <c r="D85" s="24"/>
     </row>
-    <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="86" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A86" s="13" t="s">
         <v>24</v>
       </c>
@@ -1737,7 +1734,7 @@
       </c>
       <c r="D86" s="30"/>
     </row>
-    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="87" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A87" s="26" t="s">
         <v>39</v>
       </c>
@@ -1746,7 +1743,7 @@
       </c>
       <c r="D87" s="28"/>
     </row>
-    <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="88" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A88" s="9" t="s">
         <v>19</v>
       </c>
@@ -1755,7 +1752,7 @@
       </c>
       <c r="D88" s="24"/>
     </row>
-    <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="89" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A89" s="9" t="s">
         <v>26</v>
       </c>
@@ -1764,7 +1761,7 @@
       </c>
       <c r="D89" s="24"/>
     </row>
-    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="90" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A90" s="9" t="s">
         <v>27</v>
       </c>
@@ -1773,7 +1770,7 @@
       </c>
       <c r="D90" s="24"/>
     </row>
-    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="91" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A91" s="10" t="s">
         <v>28</v>
       </c>
@@ -1782,7 +1779,7 @@
       </c>
       <c r="D91" s="24"/>
     </row>
-    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="92" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A92" s="40" t="s">
         <v>48</v>
       </c>
@@ -1791,7 +1788,7 @@
       </c>
       <c r="D92" s="24"/>
     </row>
-    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="93" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A93" s="13" t="s">
         <v>25</v>
       </c>
@@ -1815,7 +1812,7 @@
       <c r="C95" s="34"/>
       <c r="D95" s="35"/>
     </row>
-    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="96" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
       <c r="A96" s="36"/>
       <c r="B96" s="37"/>
       <c r="C96" s="38"/>

--- a/SOEN287A1Grading.xlsx
+++ b/SOEN287A1Grading.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhay\Documents\GitHub\SOEN-287\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunal\Desktop\SOEN_287_A1\SOEN-287\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFBAD38-C20C-4900-97B1-579FF41AF9C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040EE824-ADC2-4667-A6EB-1AAB04D81919}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
   <si>
     <t>Assignment #1</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>40174642, Abhay Panchoo</t>
+  </si>
+  <si>
+    <t>40153500, Kunal H. Shah</t>
   </si>
 </sst>
 </file>
@@ -913,20 +916,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="20.149999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.149999999999999" customHeight="1">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>46</v>
       </c>
@@ -934,7 +937,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:4" ht="20.149999999999999" customHeight="1">
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
@@ -942,7 +945,7 @@
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
     </row>
-    <row r="3" spans="1:4" ht="20.149999999999999" customHeight="1">
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>56</v>
       </c>
@@ -950,13 +953,13 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>43</v>
       </c>
@@ -970,7 +973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
@@ -982,7 +985,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -992,7 +995,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +1005,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1015,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="24"/>
     </row>
-    <row r="10" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A10" s="39" t="s">
         <v>47</v>
       </c>
@@ -1022,7 +1025,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="24"/>
     </row>
-    <row r="11" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1032,7 +1035,7 @@
       <c r="C11" s="19"/>
       <c r="D11" s="24"/>
     </row>
-    <row r="12" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1045,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="24"/>
     </row>
-    <row r="13" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1055,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="24"/>
     </row>
-    <row r="14" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A14" s="40" t="s">
         <v>54</v>
       </c>
@@ -1062,7 +1065,7 @@
       <c r="C14" s="20"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1083,7 +1086,7 @@
       </c>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1092,7 +1095,7 @@
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +1104,7 @@
       </c>
       <c r="D18" s="24"/>
     </row>
-    <row r="19" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
@@ -1110,7 +1113,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1122,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1128,7 +1131,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="40" t="s">
         <v>52</v>
       </c>
@@ -1137,7 +1140,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1164,7 @@
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
@@ -1170,7 +1173,7 @@
       </c>
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="9" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="D26" s="24"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
@@ -1188,7 +1191,7 @@
       </c>
       <c r="D27" s="24"/>
     </row>
-    <row r="28" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1200,7 @@
       </c>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
@@ -1206,7 +1209,7 @@
       </c>
       <c r="D29" s="24"/>
     </row>
-    <row r="30" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A30" s="40" t="s">
         <v>53</v>
       </c>
@@ -1215,7 +1218,7 @@
       </c>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A32" s="9" t="s">
         <v>12</v>
       </c>
@@ -1236,7 +1239,7 @@
       </c>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A33" s="14" t="s">
         <v>34</v>
       </c>
@@ -1245,7 +1248,7 @@
       </c>
       <c r="D33" s="24"/>
     </row>
-    <row r="34" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="9" t="s">
         <v>26</v>
       </c>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="D34" s="24"/>
     </row>
-    <row r="35" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1263,7 +1266,7 @@
       </c>
       <c r="D35" s="24"/>
     </row>
-    <row r="36" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
@@ -1272,7 +1275,7 @@
       </c>
       <c r="D36" s="24"/>
     </row>
-    <row r="37" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A37" s="13" t="s">
         <v>13</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A38" s="14" t="s">
         <v>36</v>
       </c>
@@ -1293,7 +1296,7 @@
       </c>
       <c r="D38" s="23"/>
     </row>
-    <row r="39" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
@@ -1302,7 +1305,7 @@
       </c>
       <c r="D39" s="24"/>
     </row>
-    <row r="40" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -1311,7 +1314,7 @@
       </c>
       <c r="D40" s="24"/>
     </row>
-    <row r="41" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A41" s="9" t="s">
         <v>27</v>
       </c>
@@ -1320,7 +1323,7 @@
       </c>
       <c r="D41" s="24"/>
     </row>
-    <row r="42" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>28</v>
       </c>
@@ -1329,7 +1332,7 @@
       </c>
       <c r="D42" s="24"/>
     </row>
-    <row r="43" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A43" s="40" t="s">
         <v>51</v>
       </c>
@@ -1338,7 +1341,7 @@
       </c>
       <c r="D43" s="24"/>
     </row>
-    <row r="44" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A44" s="13" t="s">
         <v>14</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A45" s="9" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1362,7 @@
       </c>
       <c r="D45" s="23"/>
     </row>
-    <row r="46" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A46" s="14" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1371,7 @@
       </c>
       <c r="D46" s="24"/>
     </row>
-    <row r="47" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A47" s="9" t="s">
         <v>26</v>
       </c>
@@ -1377,7 +1380,7 @@
       </c>
       <c r="D47" s="24"/>
     </row>
-    <row r="48" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A48" s="9" t="s">
         <v>27</v>
       </c>
@@ -1386,7 +1389,7 @@
       </c>
       <c r="D48" s="24"/>
     </row>
-    <row r="49" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A49" s="10" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1398,7 @@
       </c>
       <c r="D49" s="24"/>
     </row>
-    <row r="50" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A50" s="40" t="s">
         <v>50</v>
       </c>
@@ -1404,7 +1407,7 @@
       </c>
       <c r="D50" s="24"/>
     </row>
-    <row r="51" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A51" s="13" t="s">
         <v>15</v>
       </c>
@@ -1412,9 +1415,11 @@
       <c r="C51" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="D51" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A52" s="9" t="s">
         <v>17</v>
       </c>
@@ -1423,7 +1428,7 @@
       </c>
       <c r="D52" s="23"/>
     </row>
-    <row r="53" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A53" s="14" t="s">
         <v>38</v>
       </c>
@@ -1432,7 +1437,7 @@
       </c>
       <c r="D53" s="24"/>
     </row>
-    <row r="54" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A54" s="9" t="s">
         <v>26</v>
       </c>
@@ -1441,7 +1446,7 @@
       </c>
       <c r="D54" s="24"/>
     </row>
-    <row r="55" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A55" s="9" t="s">
         <v>27</v>
       </c>
@@ -1450,7 +1455,7 @@
       </c>
       <c r="D55" s="24"/>
     </row>
-    <row r="56" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A56" s="10" t="s">
         <v>28</v>
       </c>
@@ -1459,7 +1464,7 @@
       </c>
       <c r="D56" s="24"/>
     </row>
-    <row r="57" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A57" s="40" t="s">
         <v>48</v>
       </c>
@@ -1468,7 +1473,7 @@
       </c>
       <c r="D57" s="24"/>
     </row>
-    <row r="58" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A58" s="13" t="s">
         <v>18</v>
       </c>
@@ -1476,9 +1481,11 @@
       <c r="C58" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="29"/>
-    </row>
-    <row r="59" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+      <c r="D58" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A59" s="14" t="s">
         <v>39</v>
       </c>
@@ -1487,7 +1494,7 @@
       </c>
       <c r="D59" s="23"/>
     </row>
-    <row r="60" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A60" s="9" t="s">
         <v>19</v>
       </c>
@@ -1496,7 +1503,7 @@
       </c>
       <c r="D60" s="24"/>
     </row>
-    <row r="61" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A61" s="9" t="s">
         <v>26</v>
       </c>
@@ -1505,7 +1512,7 @@
       </c>
       <c r="D61" s="24"/>
     </row>
-    <row r="62" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A62" s="9" t="s">
         <v>27</v>
       </c>
@@ -1514,7 +1521,7 @@
       </c>
       <c r="D62" s="24"/>
     </row>
-    <row r="63" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A63" s="10" t="s">
         <v>28</v>
       </c>
@@ -1523,7 +1530,7 @@
       </c>
       <c r="D63" s="24"/>
     </row>
-    <row r="64" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A64" s="40" t="s">
         <v>48</v>
       </c>
@@ -1532,7 +1539,7 @@
       </c>
       <c r="D64" s="24"/>
     </row>
-    <row r="65" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A65" s="13" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1549,7 @@
       </c>
       <c r="D65" s="29"/>
     </row>
-    <row r="66" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A66" s="9" t="s">
         <v>21</v>
       </c>
@@ -1551,7 +1558,7 @@
       </c>
       <c r="D66" s="23"/>
     </row>
-    <row r="67" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A67" s="14" t="s">
         <v>40</v>
       </c>
@@ -1560,7 +1567,7 @@
       </c>
       <c r="D67" s="24"/>
     </row>
-    <row r="68" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A68" s="9" t="s">
         <v>26</v>
       </c>
@@ -1569,7 +1576,7 @@
       </c>
       <c r="D68" s="24"/>
     </row>
-    <row r="69" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A69" s="9" t="s">
         <v>27</v>
       </c>
@@ -1578,7 +1585,7 @@
       </c>
       <c r="D69" s="24"/>
     </row>
-    <row r="70" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A70" s="10" t="s">
         <v>28</v>
       </c>
@@ -1587,7 +1594,7 @@
       </c>
       <c r="D70" s="24"/>
     </row>
-    <row r="71" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A71" s="40" t="s">
         <v>48</v>
       </c>
@@ -1596,7 +1603,7 @@
       </c>
       <c r="D71" s="24"/>
     </row>
-    <row r="72" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A72" s="13" t="s">
         <v>22</v>
       </c>
@@ -1606,7 +1613,7 @@
       </c>
       <c r="D72" s="29"/>
     </row>
-    <row r="73" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A73" s="14" t="s">
         <v>39</v>
       </c>
@@ -1615,7 +1622,7 @@
       </c>
       <c r="D73" s="23"/>
     </row>
-    <row r="74" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A74" s="9" t="s">
         <v>19</v>
       </c>
@@ -1624,7 +1631,7 @@
       </c>
       <c r="D74" s="24"/>
     </row>
-    <row r="75" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A75" s="9" t="s">
         <v>26</v>
       </c>
@@ -1633,7 +1640,7 @@
       </c>
       <c r="D75" s="24"/>
     </row>
-    <row r="76" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A76" s="9" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1649,7 @@
       </c>
       <c r="D76" s="24"/>
     </row>
-    <row r="77" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A77" s="10" t="s">
         <v>28</v>
       </c>
@@ -1651,7 +1658,7 @@
       </c>
       <c r="D77" s="24"/>
     </row>
-    <row r="78" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A78" s="40" t="s">
         <v>49</v>
       </c>
@@ -1660,7 +1667,7 @@
       </c>
       <c r="D78" s="24"/>
     </row>
-    <row r="79" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A79" s="13" t="s">
         <v>23</v>
       </c>
@@ -1670,7 +1677,7 @@
       </c>
       <c r="D79" s="29"/>
     </row>
-    <row r="80" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A80" s="9" t="s">
         <v>21</v>
       </c>
@@ -1679,7 +1686,7 @@
       </c>
       <c r="D80" s="23"/>
     </row>
-    <row r="81" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A81" s="14" t="s">
         <v>41</v>
       </c>
@@ -1688,7 +1695,7 @@
       </c>
       <c r="D81" s="24"/>
     </row>
-    <row r="82" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A82" s="9" t="s">
         <v>26</v>
       </c>
@@ -1697,7 +1704,7 @@
       </c>
       <c r="D82" s="24"/>
     </row>
-    <row r="83" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="9" t="s">
         <v>27</v>
       </c>
@@ -1706,7 +1713,7 @@
       </c>
       <c r="D83" s="24"/>
     </row>
-    <row r="84" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A84" s="10" t="s">
         <v>28</v>
       </c>
@@ -1715,7 +1722,7 @@
       </c>
       <c r="D84" s="24"/>
     </row>
-    <row r="85" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A85" s="40" t="s">
         <v>48</v>
       </c>
@@ -1724,7 +1731,7 @@
       </c>
       <c r="D85" s="24"/>
     </row>
-    <row r="86" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A86" s="13" t="s">
         <v>24</v>
       </c>
@@ -1734,7 +1741,7 @@
       </c>
       <c r="D86" s="30"/>
     </row>
-    <row r="87" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A87" s="26" t="s">
         <v>39</v>
       </c>
@@ -1743,7 +1750,7 @@
       </c>
       <c r="D87" s="28"/>
     </row>
-    <row r="88" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A88" s="9" t="s">
         <v>19</v>
       </c>
@@ -1752,7 +1759,7 @@
       </c>
       <c r="D88" s="24"/>
     </row>
-    <row r="89" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A89" s="9" t="s">
         <v>26</v>
       </c>
@@ -1761,7 +1768,7 @@
       </c>
       <c r="D89" s="24"/>
     </row>
-    <row r="90" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A90" s="9" t="s">
         <v>27</v>
       </c>
@@ -1770,7 +1777,7 @@
       </c>
       <c r="D90" s="24"/>
     </row>
-    <row r="91" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A91" s="10" t="s">
         <v>28</v>
       </c>
@@ -1779,7 +1786,7 @@
       </c>
       <c r="D91" s="24"/>
     </row>
-    <row r="92" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A92" s="40" t="s">
         <v>48</v>
       </c>
@@ -1788,7 +1795,7 @@
       </c>
       <c r="D92" s="24"/>
     </row>
-    <row r="93" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A93" s="13" t="s">
         <v>25</v>
       </c>
@@ -1812,7 +1819,7 @@
       <c r="C95" s="34"/>
       <c r="D95" s="35"/>
     </row>
-    <row r="96" spans="1:4" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A96" s="36"/>
       <c r="B96" s="37"/>
       <c r="C96" s="38"/>

--- a/SOEN287A1Grading.xlsx
+++ b/SOEN287A1Grading.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunal\Desktop\SOEN_287_A1\SOEN-287\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samyr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040EE824-ADC2-4667-A6EB-1AAB04D81919}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD89385-086F-46F4-B9E7-4441E05BEC52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>Assignment #1</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>40153500, Kunal H. Shah</t>
+  </si>
+  <si>
+    <t>40175150, Mehdi Samy Refik</t>
   </si>
 </sst>
 </file>
@@ -916,16 +919,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1547,7 +1550,9 @@
       <c r="C65" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="29"/>
+      <c r="D65" s="29" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A66" s="9" t="s">
@@ -1611,7 +1616,9 @@
       <c r="C72" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="29"/>
+      <c r="D72" s="29" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A73" s="14" t="s">
